--- a/WWW.xlsx
+++ b/WWW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE7102-2373-486E-807E-89B5D02D1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC577979-74B7-47DC-AEC6-06175647EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{BF6AB992-A367-41FE-B952-7A79782DC4DD}"/>
   </bookViews>

--- a/WWW.xlsx
+++ b/WWW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC577979-74B7-47DC-AEC6-06175647EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BB0D5-7DCF-4F1D-9DE3-DE913E869720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{BF6AB992-A367-41FE-B952-7A79782DC4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{BF6AB992-A367-41FE-B952-7A79782DC4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/WWW.xlsx
+++ b/WWW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D622B-1AE3-4AFC-AD74-AE856CF109EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B05F2F-89B1-42FB-BF05-8B9794A988BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{BF6AB992-A367-41FE-B952-7A79782DC4DD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{BF6AB992-A367-41FE-B952-7A79782DC4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,28 +298,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -652,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65AAD25-1E48-44DA-AE3E-8B8EB044DCF3}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>29.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -683,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>81.254351</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>53</v>
+        <v>81.967896999999994</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -695,7 +704,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>2376.6897667500002</v>
+        <v>1475.4221459999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -703,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>141</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>53</v>
+        <v>133.9</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -714,11 +723,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f>135+563.5</f>
-        <v>698.5</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>53</v>
+        <f>546.4+130</f>
+        <v>676.4</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -727,7 +736,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>2934.1897667500002</v>
+        <v>2017.9221459999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -764,11 +773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEAE483-AC6A-456C-A62D-6F90DD190CC4}">
   <dimension ref="A1:BA515"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -834,7 +843,9 @@
       <c r="D3" s="3">
         <v>305.89999999999998</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>318.7</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>326.7</v>
@@ -842,7 +853,9 @@
       <c r="H3" s="3">
         <v>355.5</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>352.8</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -902,7 +915,9 @@
       <c r="D4" s="3">
         <v>105</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>109.1</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>74.8</v>
@@ -910,7 +925,9 @@
       <c r="H4" s="3">
         <v>107.5</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>105.9</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -970,7 +987,9 @@
       <c r="D5" s="3">
         <v>14.3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>12.4</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>10.8</v>
@@ -978,7 +997,9 @@
       <c r="H5" s="3">
         <v>11.2</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>11.6</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1038,7 +1059,9 @@
       <c r="D6" s="3">
         <v>311.8</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>327.8</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>315.89999999999998</v>
@@ -1046,7 +1069,9 @@
       <c r="H6" s="12">
         <v>362.6</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>363.5</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1111,7 +1136,9 @@
       <c r="D7" s="3">
         <v>113.4</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>112.4</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>96.4</v>
@@ -1119,7 +1146,9 @@
       <c r="H7" s="3">
         <v>111.6</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>106.8</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1184,7 +1213,9 @@
       <c r="D8" s="7">
         <v>425.2</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="7">
+        <v>440.2</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="7">
         <v>412.3</v>
@@ -1192,7 +1223,9 @@
       <c r="H8" s="7">
         <v>474.2</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="7">
+        <v>470.3</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="7"/>
@@ -1254,7 +1287,9 @@
       <c r="D9" s="3">
         <v>242</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>241.5</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>217.5</v>
@@ -1262,7 +1297,9 @@
       <c r="H9" s="3">
         <v>250.2</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>247.1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1328,7 +1365,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>198.7</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -1344,7 +1381,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223.20000000000002</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
@@ -1416,7 +1453,9 @@
       <c r="D11" s="3">
         <v>166.6</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>171.2</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>172</v>
@@ -1424,7 +1463,9 @@
       <c r="H11" s="3">
         <v>182.4</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>183.1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1486,7 +1527,9 @@
       <c r="D12" s="3">
         <v>3.2</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>-8.5</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>0</v>
@@ -1494,7 +1537,9 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1556,7 +1601,9 @@
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>0</v>
@@ -1564,7 +1611,9 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1626,7 +1675,9 @@
       <c r="D14" s="3">
         <v>-15.7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>1.3</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>3.1</v>
@@ -1634,7 +1685,9 @@
       <c r="H14" s="3">
         <v>0.9</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>0.5</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1691,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:K15" si="2">+C10-SUM(C11:C14)</f>
+        <f t="shared" ref="C15:J15" si="2">+C10-SUM(C11:C14)</f>
         <v>-3.1000000000000227</v>
       </c>
       <c r="D15" s="3">
@@ -1700,7 +1753,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34.699999999999989</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
@@ -1716,7 +1769,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39.600000000000023</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="2"/>
@@ -1788,7 +1841,9 @@
       <c r="D16" s="3">
         <v>11.9</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>9.6</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>8</v>
@@ -1796,7 +1851,9 @@
       <c r="H16" s="3">
         <v>8.5</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>8.1</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1858,7 +1915,9 @@
       <c r="D17" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>-3.8</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>-1.5</v>
@@ -1866,7 +1925,9 @@
       <c r="H17" s="3">
         <v>-1.4</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>-1.6</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1932,7 +1993,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28.899999999999988</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="4"/>
@@ -1948,7 +2009,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.100000000000023</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
@@ -2020,7 +2081,9 @@
       <c r="D19" s="3">
         <v>2.4</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <v>1</v>
@@ -2028,7 +2091,9 @@
       <c r="H19" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>6.8</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2094,7 +2159,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23.899999999999988</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="6"/>
@@ -2110,7 +2175,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26.300000000000022</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="6"/>
@@ -2182,7 +2247,9 @@
       <c r="D21" s="3">
         <v>1.4</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.7</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <v>1.1000000000000001</v>
@@ -2190,7 +2257,9 @@
       <c r="H21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>1.2</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2256,7 +2325,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>23.199999999999989</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="8"/>
@@ -2272,7 +2341,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25.100000000000023</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="8"/>
@@ -2399,9 +2468,9 @@
         <f t="shared" si="10"/>
         <v>0.17749999999999991</v>
       </c>
-      <c r="E24" s="8" t="e">
+      <c r="E24" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.28999999999999987</v>
       </c>
       <c r="F24" s="8" t="e">
         <f t="shared" si="10"/>
@@ -2415,9 +2484,9 @@
         <f t="shared" si="10"/>
         <v>0.33045622688039444</v>
       </c>
-      <c r="I24" s="8" t="e">
+      <c r="I24" s="8">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.30759803921568657</v>
       </c>
       <c r="J24" s="8" t="e">
         <f t="shared" si="10"/>
@@ -2489,7 +2558,9 @@
       <c r="D25" s="3">
         <v>80</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>80</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
         <v>80</v>
@@ -2497,7 +2568,9 @@
       <c r="H25" s="3">
         <v>81.099999999999994</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>81.599999999999994</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2618,9 +2691,9 @@
         <f t="shared" ref="H27:H30" si="13">+H3/D3-1</f>
         <v>0.16214449166394251</v>
       </c>
-      <c r="I27" s="13" t="e">
+      <c r="I27" s="13">
         <f t="shared" ref="I27:I32" si="14">+I3/E3-1</f>
-        <v>#DIV/0!</v>
+        <v>0.10699717602761227</v>
       </c>
       <c r="J27" s="13" t="e">
         <f t="shared" ref="J27:J32" si="15">+J3/F3-1</f>
@@ -2701,9 +2774,9 @@
         <f t="shared" si="13"/>
         <v>2.3809523809523725E-2</v>
       </c>
-      <c r="I28" s="13" t="e">
+      <c r="I28" s="13">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-2.9330889092575529E-2</v>
       </c>
       <c r="J28" s="13" t="e">
         <f t="shared" si="15"/>
@@ -2784,9 +2857,9 @@
         <f t="shared" si="13"/>
         <v>-0.21678321678321688</v>
       </c>
-      <c r="I29" s="13" t="e">
+      <c r="I29" s="13">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-6.4516129032258118E-2</v>
       </c>
       <c r="J29" s="13" t="e">
         <f t="shared" si="15"/>
@@ -2867,9 +2940,9 @@
         <f t="shared" si="13"/>
         <v>0.16292495189223866</v>
       </c>
-      <c r="I30" s="13" t="e">
+      <c r="I30" s="13">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.10890787065283702</v>
       </c>
       <c r="J30" s="13" t="e">
         <f t="shared" si="15"/>
@@ -2950,9 +3023,9 @@
         <f>+H7/D7-1</f>
         <v>-1.5873015873015928E-2</v>
       </c>
-      <c r="I31" s="13" t="e">
+      <c r="I31" s="13">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-4.9822064056939563E-2</v>
       </c>
       <c r="J31" s="13" t="e">
         <f t="shared" si="15"/>
@@ -3033,9 +3106,9 @@
         <f>+H8/D8-1</f>
         <v>0.11523988711194733</v>
       </c>
-      <c r="I32" s="10" t="e">
+      <c r="I32" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>6.8378009995456734E-2</v>
       </c>
       <c r="J32" s="10" t="e">
         <f t="shared" si="15"/>
@@ -3109,9 +3182,9 @@
         <f t="shared" si="20"/>
         <v>0.43085606773283158</v>
       </c>
-      <c r="E33" s="9" t="e">
+      <c r="E33" s="9">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.451385733757383</v>
       </c>
       <c r="F33" s="9" t="e">
         <f t="shared" si="20"/>
@@ -3125,9 +3198,9 @@
         <f t="shared" si="20"/>
         <v>0.47237452551665965</v>
       </c>
-      <c r="I33" s="9" t="e">
+      <c r="I33" s="9">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.47459068679566235</v>
       </c>
       <c r="J33" s="9" t="e">
         <f t="shared" si="20"/>
@@ -3204,9 +3277,9 @@
         <f t="shared" si="22"/>
         <v>6.843838193791156E-2</v>
       </c>
-      <c r="E34" s="9" t="e">
+      <c r="E34" s="9">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>7.8827805542935003E-2</v>
       </c>
       <c r="F34" s="9" t="e">
         <f t="shared" si="22"/>
@@ -3220,9 +3293,9 @@
         <f t="shared" si="22"/>
         <v>8.5828764234500185E-2</v>
       </c>
-      <c r="I34" s="9" t="e">
+      <c r="I34" s="9">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>8.4201573463746585E-2</v>
       </c>
       <c r="J34" s="9" t="e">
         <f t="shared" si="22"/>
@@ -3299,9 +3372,9 @@
         <f t="shared" si="24"/>
         <v>0.13333333333333339</v>
       </c>
-      <c r="E35" s="9" t="e">
+      <c r="E35" s="9">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.17301038062283744</v>
       </c>
       <c r="F35" s="9" t="e">
         <f t="shared" si="24"/>
@@ -3315,9 +3388,9 @@
         <f t="shared" si="24"/>
         <v>0.13690476190476195</v>
       </c>
-      <c r="I35" s="9" t="e">
+      <c r="I35" s="9">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.20543806646525664</v>
       </c>
       <c r="J35" s="9" t="e">
         <f t="shared" si="24"/>
